--- a/src/test/java/Data/POIWORK.xlsx
+++ b/src/test/java/Data/POIWORK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResurrectionJavaAug\Resurrection_MyFrameWork2Dec2021\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{986D7284-BBEC-4BD2-BB4C-ADC5EAEEE1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D975FEBA-386C-4E7F-95E9-0F4685DCFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D1C48D2-04EE-48BF-A9F1-76A9D823E5CD}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -40,9 +40,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>sumit</t>
   </si>
   <si>
@@ -55,7 +52,22 @@
     <t>pwd2</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>uft</t>
+  </si>
+  <si>
+    <t>selenium</t>
   </si>
 </sst>
 </file>
@@ -407,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F31ED-10A9-4683-915B-725B55EDB0FC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,29 +435,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/Data/POIWORK.xlsx
+++ b/src/test/java/Data/POIWORK.xlsx
@@ -1,73 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResurrectionJavaAug\Resurrection_MyFrameWork2Dec2021\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D975FEBA-386C-4E7F-95E9-0F4685DCFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAAD36F-46C5-41F3-80EB-DE472B73995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D1C48D2-04EE-48BF-A9F1-76A9D823E5CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>neha</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>uft</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>sumit</t>
-  </si>
-  <si>
-    <t>pwd1</t>
-  </si>
-  <si>
-    <t>nehad</t>
-  </si>
-  <si>
-    <t>pwd2</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>qa</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>uft</t>
-  </si>
-  <si>
-    <t>selenium</t>
+    <t>by code again</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>dob</t>
   </si>
 </sst>
 </file>
@@ -103,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +140,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -151,7 +152,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -198,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,55 +385,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F31ED-10A9-4683-915B-725B55EDB0FC}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12.12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44542</v>
       </c>
     </row>
   </sheetData>
